--- a/json/custom/awakenskill.xlsx
+++ b/json/custom/awakenskill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_github_padmst\010_PadMstData\json\custom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA33E4C-024A-42F2-B8FF-29EEE1071831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3DCB5E-1C4C-4445-B70A-641F20B213E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{246170B1-CE7C-49E4-BF23-1E8572D70011}"/>
   </bookViews>
@@ -18,28 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$130</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="399">
   <si>
     <t>id</t>
   </si>
@@ -1218,6 +1207,30 @@
   </si>
   <si>
     <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破壊ボーナス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位破壊素材のドロップ率が10%上昇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バトル5以降で全パラメータが1.5倍、バトル10以降で全パラメータが2倍になる。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1607,9 +1620,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347B9835-9FF8-4991-A3E4-8944D05451B4}">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1619,7 +1632,7 @@
     <col min="2" max="2" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1658,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1673,8 +1686,12 @@
         <f t="shared" ref="H2:H65" si="1">COUNTIF(G:G,G2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I65" si="2">A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2</f>
+        <v>1,HP強化,HPが500アップします,9,6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1695,15 +1712,19 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="2">(D3-1)*9+E3</f>
+        <f t="shared" ref="G3:G66" si="3">(D3-1)*9+E3</f>
         <v>79</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="str">
+        <f t="shared" si="2"/>
+        <v>2,攻撃強化,攻撃力が100アップします,9,7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1724,15 +1745,19 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>3,回復強化,回復力が200アップします,9,8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1753,15 +1778,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>4,火ダメージ軽減,火属性モンスターから受けるダメージを軽減します,10,1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1782,15 +1811,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>5,水ダメージ軽減,水属性モンスターから受けるダメージを軽減します,10,2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1811,15 +1844,19 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>6,木ダメージ軽減,木属性モンスターから受けるダメージを軽減します,10,3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1840,15 +1877,19 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>7,光ダメージ軽減,光属性モンスターから受けるダメージを軽減します,10,4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1869,15 +1910,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>8,闇ダメージ軽減,闇属性モンスターから受けるダメージを軽減します,10,5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1898,15 +1943,19 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>9,自動回復,ドロップを消したターン、HPが1000回復する,6,7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1927,15 +1976,19 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>10,バインド耐性,自分自身へのバインド攻撃を無効化することがある,1,4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1956,15 +2009,19 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>11,暗闇耐性,暗闇攻撃を無効化することがある,1,6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1985,15 +2042,19 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>12,お邪魔耐性,お邪魔攻撃を無効化することがある,1,7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -2014,15 +2075,19 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>13,毒耐性,毒攻撃を無効化することがある,1,8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -2043,15 +2108,19 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>14,火ドロップ強化,強化された火ドロップの出現率とダメージがアップする,6,1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -2072,15 +2141,19 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>15,水ドロップ強化,強化された水ドロップの出現率とダメージがアップする,6,2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2101,15 +2174,19 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>16,木ドロップ強化,強化された木ドロップの出現率とダメージがアップする,6,3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -2130,15 +2207,19 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>17,光ドロップ強化,強化された光ドロップの出現率とダメージがアップする,6,4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2159,15 +2240,19 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>18,闇ドロップ強化,強化された闇ドロップの出現率とダメージがアップする,6,5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -2188,15 +2273,19 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>19,操作時間延長,ドロップ操作時間が少し延びる,3,1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -2217,15 +2306,19 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>20,バインド回復,回復ドロップを横一列でそろえて消すとバインド状態が3ターン回復する（この覚醒スキルは覚醒無効の影響を受けない）,6,8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -2246,15 +2339,19 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>21,スキルブースト,チーム全体のスキルが1ターン溜まった状態で始まる,1,1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -2275,15 +2372,19 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>22,火列強化,火ドロップを横一列でそろえて消すと火属性の攻撃力がアップする,8,1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -2304,15 +2405,19 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>23,水列強化,水ドロップを横一列でそろえて消すと水属性の攻撃力がアップする,8,2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -2333,15 +2438,19 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>24,木列強化,木ドロップを横一列でそろえて消すと木属性の攻撃力がアップする,8,3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -2362,15 +2471,19 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>25,光列強化,光ドロップを横一列でそろえて消すと光属性の攻撃力がアップする,8,4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2391,15 +2504,19 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>26,闇列強化,闇ドロップを横一列でそろえて消すと闇属性の攻撃力がアップする,8,5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
@@ -2420,15 +2537,19 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>27,2体攻撃,自分と同じ属性のドロップを4個消すと攻撃力がアップし、敵2体に攻撃をする,3,3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
@@ -2449,15 +2570,19 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>28,封印耐性,スキル封印を無効化することがある,2,9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -2478,15 +2603,19 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>29,回復ドロップ強化,強化された回復ドロップの出現率と\n回復力がアップす\n回復の4個消しで回復力がアップする,6,6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
@@ -2507,15 +2636,19 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>30,マルチブースト,協力プレイ時に自分の全パラメータがアップする,8,8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -2536,15 +2669,19 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>31,ドラゴンキラー,ドラゴンタイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,10,7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -2565,15 +2702,19 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>32,神キラー,神タイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,10,6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -2594,15 +2735,19 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v>33,悪魔キラー,悪魔タイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,10,8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -2623,15 +2768,19 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
+        <v>34,マシンキラー,マシンタイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,10,9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -2652,15 +2801,19 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
+        <v>35,バランスキラー,バランスタイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,11,6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -2681,15 +2834,19 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v>36,攻撃キラー,攻撃タイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,11,7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -2710,15 +2867,19 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v>37,体力キラー,体力タイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,11,8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
@@ -2739,15 +2900,19 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="str">
+        <f t="shared" si="2"/>
+        <v>38,回復キラー,回復タイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,11,9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>119</v>
       </c>
@@ -2768,15 +2933,19 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="str">
+        <f t="shared" si="2"/>
+        <v>39,進化用キラー,進化用タイプの敵に対して攻撃力がアップする,12,6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
@@ -2797,15 +2966,19 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="str">
+        <f t="shared" si="2"/>
+        <v>40,能力覚醒用キラー,能力覚醒タイプの敵に対して攻撃力がアップする,12,7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
@@ -2826,15 +2999,19 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="str">
+        <f t="shared" si="2"/>
+        <v>41,強化合成用キラー,強化合成用タイプの敵に対して攻撃力がアップする。,12,8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
@@ -2855,15 +3032,19 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="str">
+        <f t="shared" si="2"/>
+        <v>42,売却用キラー,売却用タイプの敵に対して攻撃力がアップする,12,9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>131</v>
       </c>
@@ -2884,15 +3065,19 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="str">
+        <f t="shared" si="2"/>
+        <v>43,コンボ強化,7コンボ以上で攻撃力がアップする,1,2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>134</v>
       </c>
@@ -2913,15 +3098,19 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="str">
+        <f t="shared" si="2"/>
+        <v>44,ガードブレイク,5属性同時攻撃すると敵の防御力を無視してダメージを与える,6,9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -2942,15 +3131,19 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="str">
+        <f t="shared" si="2"/>
+        <v>45,追加攻撃,回復ドロップを縦一列でそろえて消すと1ダメージの追い打ち,3,8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>140</v>
       </c>
@@ -2971,15 +3164,19 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="str">
+        <f t="shared" si="2"/>
+        <v>46,チームHP強化,チームのHPが5%アップする,8,6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>143</v>
       </c>
@@ -3000,15 +3197,19 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="str">
+        <f t="shared" si="2"/>
+        <v>47,チーム回復強化,チームの回復力が10%アップする,8,7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>146</v>
       </c>
@@ -3029,15 +3230,19 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="str">
+        <f t="shared" si="2"/>
+        <v>48,ダメージ無効貫通,自分と同じ属性のドロップを3×3の正方形で消すと攻撃力がアップし、ダメージ無効を貫通する,3,2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>149</v>
       </c>
@@ -3058,15 +3263,19 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="str">
+        <f t="shared" si="2"/>
+        <v>49,覚醒アシスト,他のモンスターにアシストすると自分の覚醒スキルが付与される,1,9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>152</v>
       </c>
@@ -3087,15 +3296,19 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="str">
+        <f t="shared" si="2"/>
+        <v>50,超追加攻撃,回復ドロップを3×3の正方形で消すと攻撃力がアップし、 999万ダメージの追い打ち,3,9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>155</v>
       </c>
@@ -3116,15 +3329,19 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="str">
+        <f t="shared" si="2"/>
+        <v>51,スキルチャージ,5属性同時攻撃すると自分のスキルが1ターン溜まる,4,9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -3145,15 +3362,19 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="str">
+        <f t="shared" si="2"/>
+        <v>52,バインド耐性+,自分自身へのバインド攻撃を無効化する,2,4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>161</v>
       </c>
@@ -3174,15 +3395,19 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="str">
+        <f t="shared" si="2"/>
+        <v>53,操作時間延長+,ドロップ操作時間が延びる,4,1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>164</v>
       </c>
@@ -3203,15 +3428,19 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="str">
+        <f t="shared" si="2"/>
+        <v>54,雲耐性,雲攻撃を無効化する,1,5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>167</v>
       </c>
@@ -3232,15 +3461,19 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="str">
+        <f t="shared" si="2"/>
+        <v>55,操作不可耐性,操作不可攻撃を無効化する,2,5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>170</v>
       </c>
@@ -3261,15 +3494,19 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="str">
+        <f t="shared" si="2"/>
+        <v>56,スキルブースト+,チーム全体のスキルが2ターン溜まった状態で始まる,2,1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>173</v>
       </c>
@@ -3290,15 +3527,19 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="str">
+        <f t="shared" si="2"/>
+        <v>57,HP50％以上強化,HP50％以上で攻撃力がアップする,5,2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>176</v>
       </c>
@@ -3319,15 +3560,19 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="str">
+        <f t="shared" si="2"/>
+        <v>58,HP50％以下強化,HP50％以下で攻撃力がアップする,5,3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>179</v>
       </c>
@@ -3348,15 +3593,19 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="str">
+        <f t="shared" si="2"/>
+        <v>59,回復L字消し,回復ドロップ5個をL字型に消すと敵から受けるダメージを軽減し、攻撃力がアップする,3,7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>182</v>
       </c>
@@ -3377,15 +3626,19 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="H61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="str">
+        <f t="shared" si="2"/>
+        <v>60,L字消し攻撃,自分と同じ属性のドロップ5個をL字型に消すと攻撃力がアップし、ロック状態を解除する,3,5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>185</v>
       </c>
@@ -3406,15 +3659,19 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="str">
+        <f t="shared" si="2"/>
+        <v>61,超コンボ強化,10コンボ以上で攻撃力が5倍になる,1,3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>188</v>
       </c>
@@ -3435,15 +3692,19 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="H63">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="str">
+        <f t="shared" si="2"/>
+        <v>62,コンボドロップ,自分と同じ属性のドロップを10個以上つなげて消すと コンボドロップが落ちてくる(最大8個まで) さらに1コンボ加算(最大4コンボまで),5,5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>191</v>
       </c>
@@ -3464,15 +3725,19 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="H64">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="str">
+        <f t="shared" si="2"/>
+        <v>63,スキルボイス,全パラメータが10%アップする スキル使用時に声が出る（この覚醒スキルは覚醒無効の影響を受けない）,14,9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>194</v>
       </c>
@@ -3493,15 +3758,19 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="H65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="str">
+        <f t="shared" si="2"/>
+        <v>64,ダンジョンボーナス,1人プレイの時にランク経験値、モンスター経験値、入手コイン、卵ドロップ率がほんの少し上昇,15,4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>197</v>
       </c>
@@ -3518,19 +3787,23 @@
         <v>6</v>
       </c>
       <c r="F66" t="b">
-        <f t="shared" ref="F66:F129" si="3">OR(D66="",E66="")</f>
+        <f t="shared" ref="F66:F129" si="4">OR(D66="",E66="")</f>
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H129" si="4">COUNTIF(G:G,G66)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H66:H129" si="5">COUNTIF(G:G,G66)</f>
+        <v>1</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" ref="I66:I129" si="6">A66&amp;","&amp;B66&amp;","&amp;C66&amp;","&amp;D66&amp;","&amp;E66</f>
+        <v>65,HP弱化,HPが2500ダウンする(最小1まで),13,6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>200</v>
       </c>
@@ -3547,19 +3820,23 @@
         <v>7</v>
       </c>
       <c r="F67" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="5">(D67-1)*9+E67</f>
+        <f t="shared" ref="G67:G131" si="7">(D67-1)*9+E67</f>
         <v>115</v>
       </c>
       <c r="H67">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="6"/>
+        <v>66,攻撃弱化,攻撃力が1000ダウンする(最小1まで),13,7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
@@ -3576,19 +3853,23 @@
         <v>8</v>
       </c>
       <c r="F68" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>116</v>
       </c>
       <c r="H68">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="6"/>
+        <v>67,回復弱化,回復力が2000ダウンする,13,8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
@@ -3605,19 +3886,23 @@
         <v>6</v>
       </c>
       <c r="F69" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="H69">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="6"/>
+        <v>68,暗闇耐性＋,暗闇攻撃を無効化する,2,6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>209</v>
       </c>
@@ -3634,19 +3919,23 @@
         <v>7</v>
       </c>
       <c r="F70" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="H70">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="6"/>
+        <v>69,お邪魔耐性＋,お邪魔攻撃や爆弾攻撃を無効化する,2,7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>212</v>
       </c>
@@ -3663,19 +3952,23 @@
         <v>8</v>
       </c>
       <c r="F71" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="H71">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="6"/>
+        <v>70,毒耐性＋,毒攻撃を無効化する,2,8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>215</v>
       </c>
@@ -3692,19 +3985,23 @@
         <v>9</v>
       </c>
       <c r="F72" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="H72">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="6"/>
+        <v>71,お邪魔ドロップの加護,お邪魔ドロップが落ちてくるようになり、 お邪魔ドロップを消すと攻撃力がアップする,7,9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>218</v>
       </c>
@@ -3721,19 +4018,23 @@
         <v>9</v>
       </c>
       <c r="F73" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="H73">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="6"/>
+        <v>72,毒ドロップの加護,毒ドロップが落ちてくるようになり、毒か猛毒ドロップを消すと攻撃力がアップする,8,9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -3750,19 +4051,23 @@
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="H74">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="6"/>
+        <v>73,火コンボ強化,火ドロップで2コンボ以上すると、火属性の攻撃力がアップする,11,1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -3779,19 +4084,23 @@
         <v>2</v>
       </c>
       <c r="F75" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="H75">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="6"/>
+        <v>74,水コンボ強化,水ドロップで2コンボ以上すると、水属性の攻撃力がアップする,11,2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>227</v>
       </c>
@@ -3808,19 +4117,23 @@
         <v>3</v>
       </c>
       <c r="F76" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="H76">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="6"/>
+        <v>75,木コンボ強化,木ドロップで2コンボ以上すると、木属性の攻撃力がアップする,11,3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>230</v>
       </c>
@@ -3837,19 +4150,23 @@
         <v>4</v>
       </c>
       <c r="F77" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="H77">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="6"/>
+        <v>76,光コンボ強化,光ドロップで2コンボ以上すると、光属性の攻撃力がアップする,11,4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>233</v>
       </c>
@@ -3866,19 +4183,23 @@
         <v>5</v>
       </c>
       <c r="F78" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="H78">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="6"/>
+        <v>77,闇コンボ強化,闇ドロップで2コンボ以上すると、闇属性の攻撃力がアップする,11,5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>236</v>
       </c>
@@ -3895,19 +4216,23 @@
         <v>4</v>
       </c>
       <c r="F79" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="H79">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="6"/>
+        <v>78,十字消し攻撃,自分と同じ属性のドロップ5個を十字型に消すと攻撃力がアップし、超暗闇目覚めを3ターン回復する,3,4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>239</v>
       </c>
@@ -3924,19 +4249,23 @@
         <v>6</v>
       </c>
       <c r="F80" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="H80">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="6"/>
+        <v>79,3色攻撃強化,3色以上同時攻撃で攻撃力がアップ(2.5倍)する,4,6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>242</v>
       </c>
@@ -3953,19 +4282,23 @@
         <v>7</v>
       </c>
       <c r="F81" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="H81">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="6"/>
+        <v>80,4色攻撃強化,4色以上同時攻撃で攻撃力がアップ(3.5倍)する,4,7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>245</v>
       </c>
@@ -3982,19 +4315,23 @@
         <v>8</v>
       </c>
       <c r="F82" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="H82">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="6"/>
+        <v>81,5色攻撃強化,5色同時攻撃で攻撃力が4.5倍になる,4,8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>248</v>
       </c>
@@ -4011,19 +4348,23 @@
         <v>4</v>
       </c>
       <c r="F83" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="H83">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="6"/>
+        <v>82,超つなげ消し強化,自分と同じ属性のドロップを12個以上つなげて消すと、攻撃力が12倍になる,5,4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>251</v>
       </c>
@@ -4040,19 +4381,23 @@
         <v>2</v>
       </c>
       <c r="F84" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
       <c r="H84">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="6"/>
+        <v>83,ドラゴンタイプ追加,ダンジョン潜入中、ドラゴンタイプが追加される,14,2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>254</v>
       </c>
@@ -4069,19 +4414,23 @@
         <v>1</v>
       </c>
       <c r="F85" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
       <c r="H85">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="6"/>
+        <v>84,神タイプ追加,ダンジョン潜入中、神タイプが追加される,14,1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>257</v>
       </c>
@@ -4098,19 +4447,23 @@
         <v>3</v>
       </c>
       <c r="F86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="H86">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="6"/>
+        <v>85,悪魔タイプ追加,ダンジョン潜入中、悪魔タイプが追加される,14,3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>260</v>
       </c>
@@ -4127,19 +4480,23 @@
         <v>4</v>
       </c>
       <c r="F87" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="H87">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="6"/>
+        <v>86,マシンタイプ追加,ダンジョン潜入中、マシンタイプが追加される,14,4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>263</v>
       </c>
@@ -4156,19 +4513,23 @@
         <v>5</v>
       </c>
       <c r="F88" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
       <c r="H88">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="6"/>
+        <v>87,バランスタイプ追加,ダンジョン潜入中、バランスタイプが追加される,14,5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>266</v>
       </c>
@@ -4185,19 +4546,23 @@
         <v>6</v>
       </c>
       <c r="F89" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>123</v>
       </c>
       <c r="H89">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="6"/>
+        <v>88,攻撃タイプ追加,ダンジョン潜入中、攻撃タイプが追加される,14,6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>269</v>
       </c>
@@ -4214,19 +4579,23 @@
         <v>7</v>
       </c>
       <c r="F90" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
       <c r="H90">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="6"/>
+        <v>89,体力タイプ追加,ダンジョン潜入中、体力タイプが追加される,14,7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>272</v>
       </c>
@@ -4243,19 +4612,23 @@
         <v>8</v>
       </c>
       <c r="F91" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
       <c r="H91">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="6"/>
+        <v>90,回復タイプ追加,ダンジョン潜入中、回復タイプが追加される,14,8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>275</v>
       </c>
@@ -4272,19 +4645,23 @@
         <v>1</v>
       </c>
       <c r="F92" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>109</v>
       </c>
       <c r="H92">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="6"/>
+        <v>91,副属性変更・火,ダンジョン潜入中、副属性が火属性に変更される （ダメージは攻撃力の15％分）,13,1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>278</v>
       </c>
@@ -4301,19 +4678,23 @@
         <v>2</v>
       </c>
       <c r="F93" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="H93">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="6"/>
+        <v>92,副属性変更・水,ダンジョン潜入中、副属性が水属性に変更される （ダメージは攻撃力の15％分）,13,2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>281</v>
       </c>
@@ -4330,19 +4711,23 @@
         <v>3</v>
       </c>
       <c r="F94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="H94">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="6"/>
+        <v>93,副属性変更・木,ダンジョン潜入中、副属性が木属性に変更される （ダメージは攻撃力の15％分）,13,3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>284</v>
       </c>
@@ -4359,19 +4744,23 @@
         <v>4</v>
       </c>
       <c r="F95" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
       <c r="H95">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="6"/>
+        <v>94,副属性変更・光,ダンジョン潜入中、副属性が光属性に変更される （ダメージは攻撃力の15％分）,13,4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>287</v>
       </c>
@@ -4388,19 +4777,23 @@
         <v>5</v>
       </c>
       <c r="F96" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
       <c r="H96">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="6"/>
+        <v>95,副属性変更・闇,ダンジョン潜入中、副属性が闇属性に変更される （ダメージは攻撃力の15％分）,13,5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>290</v>
       </c>
@@ -4417,19 +4810,23 @@
         <v>3</v>
       </c>
       <c r="F97" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="H97">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="6"/>
+        <v>96,2体攻撃＋,自分と同じ属性のドロップを4個消すと 攻撃力がかなりアップし、敵2体に攻撃をする (2体攻撃2個分の効果),4,3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>293</v>
       </c>
@@ -4446,19 +4843,23 @@
         <v>9</v>
       </c>
       <c r="F98" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="H98">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="6"/>
+        <v>97,スキルチャージ＋,5属性同時攻撃すると 自分のスキルが2ターン溜まる,5,9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>296</v>
       </c>
@@ -4475,19 +4876,23 @@
         <v>7</v>
       </c>
       <c r="F99" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="H99">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="6"/>
+        <v>98,自動回復＋,ドロップを消したターン、 HPが2000回復する,7,7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>299</v>
       </c>
@@ -4504,19 +4909,23 @@
         <v>1</v>
       </c>
       <c r="F100" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="H100">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="6"/>
+        <v>99,火ドロップ強化＋,強化された火ドロップの出現率と ダメージがかなりアップする （火ドロップ強化2個分の効果）,7,1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>302</v>
       </c>
@@ -4533,19 +4942,23 @@
         <v>2</v>
       </c>
       <c r="F101" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="H101">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="6"/>
+        <v>100,水ドロップ強化＋,強化された水ドロップの出現率と ダメージがかなりアップする （水ドロップ強化2個分の効果）,7,2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>305</v>
       </c>
@@ -4562,19 +4975,23 @@
         <v>3</v>
       </c>
       <c r="F102" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="H102">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="6"/>
+        <v>101,木ドロップ強化＋,強化された木ドロップの出現率と ダメージがかなりアップする （木ドロップ強化2個分の効果）,7,3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>308</v>
       </c>
@@ -4591,19 +5008,23 @@
         <v>4</v>
       </c>
       <c r="F103" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="H103">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="6"/>
+        <v>102,光ドロップ強化＋,強化された光ドロップの出現率と ダメージがかなりアップする （光ドロップ強化2個分の効果）,7,4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>311</v>
       </c>
@@ -4620,19 +5041,23 @@
         <v>5</v>
       </c>
       <c r="F104" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="H104">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="6"/>
+        <v>103,闇ドロップ強化＋,強化された闇ドロップの出現率と ダメージがかなりアップする （闇ドロップ強化2個分の効果）,7,5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>314</v>
       </c>
@@ -4649,19 +5074,23 @@
         <v>6</v>
       </c>
       <c r="F105" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="H105">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="6"/>
+        <v>104,回復ドロップ強化＋,強化された回復ドロップの出現率と 回復力がかなりアップする 回復の4個消しで回復力がアップする (回復ドロップ強化2個分の効果),7,6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>317</v>
       </c>
@@ -4678,19 +5107,23 @@
         <v>9</v>
       </c>
       <c r="F106" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="H106">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="6"/>
+        <v>105,スキルブーストマイナス,チーム全体のスキルが 1ターン減った状態で始まる,13,9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>320</v>
       </c>
@@ -4707,19 +5140,23 @@
         <v>1</v>
       </c>
       <c r="F107" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="H107">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="6"/>
+        <v>106,浮遊,自分自身への超重力効果を緩和する,5,1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>323</v>
       </c>
@@ -4736,19 +5173,23 @@
         <v>2</v>
       </c>
       <c r="F108" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="H108">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="6"/>
+        <v>107,コンボ強化＋,7コンボ以上で攻撃力がかなりアップする（コンボ強化2個分の効果）,2,2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>326</v>
       </c>
@@ -4765,19 +5206,23 @@
         <v>5</v>
       </c>
       <c r="F109" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="H109">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="6"/>
+        <v>108,L字消し攻撃＋,自分と同じ属性のドロップ5個をL字型に消すと攻撃力がかなりアップし、ロック状態を解除する（L字消し攻撃2個分の効果）,4,5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>329</v>
       </c>
@@ -4794,19 +5239,23 @@
         <v>2</v>
       </c>
       <c r="F110" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="H110">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="6"/>
+        <v>109,ダメージ無効貫通＋,自分と同じ属性のドロップを3×3の正方形で消すと攻撃力がアップ（12.25倍）し、ダメージ無効を貫通する（ダメージ無効貫通2個分の効果）,4,2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>332</v>
       </c>
@@ -4823,19 +5272,23 @@
         <v>4</v>
       </c>
       <c r="F111" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="H111">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="6"/>
+        <v>110,十字消し攻撃＋,自分と同じ属性のドロップ5個を十字型に消すと攻撃力がアップ（9倍）し、超暗闇目覚めを6ターン回復する（十字消し攻撃2個分の効果）,4,4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>335</v>
       </c>
@@ -4852,19 +5305,23 @@
         <v>3</v>
       </c>
       <c r="F112" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="H112">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="6"/>
+        <v>111,超コンボ強化＋,10コンボ以上で攻撃力がかなりアップ（5倍）する（超コンボ強化2個分の効果）,2,3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>338</v>
       </c>
@@ -4881,19 +5338,23 @@
         <v>6</v>
       </c>
       <c r="F113" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="H113">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="6"/>
+        <v>112,3色攻撃強化＋,3色以上同時攻撃で攻撃力がかなりアップ(6.25倍)する（3色攻撃強化2個分の効果）,5,6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>341</v>
       </c>
@@ -4910,19 +5371,23 @@
         <v>7</v>
       </c>
       <c r="F114" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="H114">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="6"/>
+        <v>113,4色攻撃強化＋,4色以上同時攻撃で攻撃力がかなりアップ(12.25倍)する（4色攻撃強化2個分の効果）,5,7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>344</v>
       </c>
@@ -4939,19 +5404,23 @@
         <v>8</v>
       </c>
       <c r="F115" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="H115">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="6"/>
+        <v>114,5色攻撃強化＋,5色同時攻撃で攻撃力ががかなりアップ(20.25倍)する（5色攻撃強化2個分の効果）,5,8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>347</v>
       </c>
@@ -4968,19 +5437,23 @@
         <v>8</v>
       </c>
       <c r="F116" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="H116">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="6"/>
+        <v>115,バインド回復＋,回復ドロップを横一列でそろえて消すとバインド状態が6ターン回復する（この覚醒スキルは覚醒無効の影響を受けない）（バインド回復2個分の効果）,7,8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>350</v>
       </c>
@@ -4997,19 +5470,23 @@
         <v>1</v>
       </c>
       <c r="F117" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="H117">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="6"/>
+        <v>116,火列強化×3,火ドロップを横一列でそろえて消すと火属性の攻撃力がアップする（60%）,9,1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>353</v>
       </c>
@@ -5026,19 +5503,23 @@
         <v>2</v>
       </c>
       <c r="F118" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="H118">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="6"/>
+        <v>117,水列強化×3,水ドロップを横一列でそろえて消すと水属性の攻撃力がアップする（60%）,9,2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>356</v>
       </c>
@@ -5055,19 +5536,23 @@
         <v>3</v>
       </c>
       <c r="F119" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="H119">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="6"/>
+        <v>118,木列強化×3,木ドロップを横一列でそろえて消すと木属性の攻撃力がアップする（60%）,9,3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>359</v>
       </c>
@@ -5084,19 +5569,23 @@
         <v>4</v>
       </c>
       <c r="F120" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="H120">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="6"/>
+        <v>119,光列強化×3,光ドロップを横一列でそろえて消すと光属性の攻撃力がアップする（60%）,9,4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>362</v>
       </c>
@@ -5113,19 +5602,23 @@
         <v>5</v>
       </c>
       <c r="F121" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="H121">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="6"/>
+        <v>120,闇列強化×3,闇ドロップを横一列でそろえて消すと闇属性の攻撃力がアップする（60%）,9,5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>365</v>
       </c>
@@ -5142,19 +5635,23 @@
         <v>1</v>
       </c>
       <c r="F122" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="H122">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="6"/>
+        <v>121,火コンボ強化＋,火ドロップで2コンボ以上すると、火属性の攻撃力がアップする（火コンボ強化2個分の効果）,12,1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>368</v>
       </c>
@@ -5171,19 +5668,23 @@
         <v>2</v>
       </c>
       <c r="F123" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="H123">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="6"/>
+        <v>122,水コンボ強化＋,水ドロップで2コンボ以上すると、水属性の攻撃力がアップする（水コンボ強化2個分の効果）,12,2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>371</v>
       </c>
@@ -5200,19 +5701,23 @@
         <v>3</v>
       </c>
       <c r="F124" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="H124">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="6"/>
+        <v>123,木コンボ強化＋,木ドロップで2コンボ以上すると、木属性の攻撃力がアップする（木コンボ強化2個分の効果）,12,3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>374</v>
       </c>
@@ -5229,19 +5734,23 @@
         <v>4</v>
       </c>
       <c r="F125" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="H125">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="6"/>
+        <v>124,光コンボ強化＋,光ドロップで2コンボ以上すると、光属性の攻撃力がアップする（光コンボ強化2個分の効果）,12,4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>377</v>
       </c>
@@ -5258,19 +5767,23 @@
         <v>5</v>
       </c>
       <c r="F126" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="H126">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="6"/>
+        <v>125,闇コンボ強化＋,闇ドロップで2コンボ以上すると、闇属性の攻撃力がアップする（闇コンボ強化2個分の効果）,12,5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>380</v>
       </c>
@@ -5287,19 +5800,23 @@
         <v>6</v>
       </c>
       <c r="F127" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="H127">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="6"/>
+        <v>126,T字消し攻撃,自分と同じ属性のドロップ5個をT字型に消すと攻撃力が4倍になり、ドロップ強化をした状態で攻撃する,3,6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>383</v>
       </c>
@@ -5316,19 +5833,23 @@
         <v>9</v>
       </c>
       <c r="F128" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="H128">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="6"/>
+        <v>127,全パラメータ強化,自分の全パラメータが1.5倍にアップする,9,9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>386</v>
       </c>
@@ -5345,19 +5866,23 @@
         <v>1</v>
       </c>
       <c r="F129" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>127</v>
       </c>
       <c r="H129">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="6"/>
+        <v>128,陽の加護,陽の表示があるダンジョンフロアでHPと回復力が1.2倍、攻撃力は5倍になる,15,1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>389</v>
       </c>
@@ -5378,12 +5903,82 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="H130">
         <f>COUNTIF(G:G,G130)</f>
         <v>1</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" ref="I130:I131" si="8">A130&amp;","&amp;B130&amp;","&amp;C130&amp;","&amp;D130&amp;","&amp;E130</f>
+        <v>129,陰の加護,陰の表示があるダンジョンフロアでHPと回復力が1.2倍、攻撃力は5倍になる,15,2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D131">
+        <v>15</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131" t="b">
+        <f>OR(D131="",E131="")</f>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="H131">
+        <f>COUNTIF(G:G,G131)</f>
+        <v>1</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" si="8"/>
+        <v>130,熟成,バトル5以降で全パラメータが1.5倍、バトル10以降で全パラメータが2倍になる。,15,3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D132">
+        <v>15</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132" t="b">
+        <f>OR(D132="",E132="")</f>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" ref="G132" si="9">(D132-1)*9+E132</f>
+        <v>131</v>
+      </c>
+      <c r="H132">
+        <f>COUNTIF(G:G,G132)</f>
+        <v>1</v>
+      </c>
+      <c r="I132" t="str">
+        <f>A132&amp;","&amp;B132&amp;","&amp;C132&amp;","&amp;D132&amp;","&amp;E132</f>
+        <v>131,部位破壊ボーナス,部位破壊素材のドロップ率が10%上昇,15,5</v>
       </c>
     </row>
   </sheetData>

--- a/json/custom/awakenskill.xlsx
+++ b/json/custom/awakenskill.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_github_padmst\010_PadMstData\json\custom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3DCB5E-1C4C-4445-B70A-641F20B213E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54233CF8-C3B9-4B99-9A3A-B96AE156A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{246170B1-CE7C-49E4-BF23-1E8572D70011}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="awakenskill" sheetId="1" r:id="rId1"/>
+    <sheet name="awakenskill_equivalent" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">awakenskill!$A$1:$H$130</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="411">
   <si>
     <t>id</t>
   </si>
@@ -1231,6 +1232,56 @@
   </si>
   <si>
     <t>バトル5以降で全パラメータが1.5倍、バトル10以降で全パラメータが2倍になる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓copy to csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small name
+check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big name
+check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1238,7 +1289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,21 +1321,77 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1293,18 +1400,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347B9835-9FF8-4991-A3E4-8944D05451B4}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1632,4351 +1754,4354 @@
     <col min="2" max="2" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>392</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>6</v>
       </c>
-      <c r="F2" t="b">
+      <c r="F2" s="5" t="b">
         <f t="shared" ref="F2:F65" si="0">OR(D2="",E2="")</f>
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <f>(D2-1)*9+E2</f>
         <v>78</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <f t="shared" ref="H2:H65" si="1">COUNTIF(G:G,G2)</f>
         <v>1</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="5" t="str">
         <f t="shared" ref="I2:I65" si="2">A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2</f>
         <v>1,HP強化,HPが500アップします,9,6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>7</v>
       </c>
-      <c r="F3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G66" si="3">(D3-1)*9+E3</f>
         <v>79</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" s="5" t="str">
         <f t="shared" si="2"/>
         <v>2,攻撃強化,攻撃力が100アップします,9,7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>8</v>
       </c>
-      <c r="F4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="5" t="str">
         <f t="shared" si="2"/>
         <v>3,回復強化,回復力が200アップします,9,8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="5" t="str">
         <f t="shared" si="2"/>
         <v>4,火ダメージ軽減,火属性モンスターから受けるダメージを軽減します,10,1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="F6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="5" t="str">
         <f t="shared" si="2"/>
         <v>5,水ダメージ軽減,水属性モンスターから受けるダメージを軽減します,10,2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="5" t="str">
         <f t="shared" si="2"/>
         <v>6,木ダメージ軽減,木属性モンスターから受けるダメージを軽減します,10,3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="5" t="str">
         <f t="shared" si="2"/>
         <v>7,光ダメージ軽減,光属性モンスターから受けるダメージを軽減します,10,4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>5</v>
       </c>
-      <c r="F9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="5" t="str">
         <f t="shared" si="2"/>
         <v>8,闇ダメージ軽減,闇属性モンスターから受けるダメージを軽減します,10,5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>7</v>
       </c>
-      <c r="F10" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>9,自動回復,ドロップを消したターン、HPが1000回復する,6,7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <v>4</v>
       </c>
-      <c r="F11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="5" t="str">
         <f t="shared" si="2"/>
         <v>10,バインド耐性,自分自身へのバインド攻撃を無効化することがある,1,4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
         <v>6</v>
       </c>
-      <c r="F12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="5" t="str">
         <f t="shared" si="2"/>
         <v>11,暗闇耐性,暗闇攻撃を無効化することがある,1,6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
         <v>7</v>
       </c>
-      <c r="F13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,お邪魔耐性,お邪魔攻撃を無効化することがある,1,7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
         <v>8</v>
       </c>
-      <c r="F14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="5" t="str">
         <f t="shared" si="2"/>
         <v>13,毒耐性,毒攻撃を無効化することがある,1,8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="5" t="str">
         <f t="shared" si="2"/>
         <v>14,火ドロップ強化,強化された火ドロップの出現率とダメージがアップする,6,1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>6</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>2</v>
       </c>
-      <c r="F16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="5" t="str">
         <f t="shared" si="2"/>
         <v>15,水ドロップ強化,強化された水ドロップの出現率とダメージがアップする,6,2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>6</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>3</v>
       </c>
-      <c r="F17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I17" s="5" t="str">
         <f t="shared" si="2"/>
         <v>16,木ドロップ強化,強化された木ドロップの出現率とダメージがアップする,6,3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>6</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>4</v>
       </c>
-      <c r="F18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I18" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,光ドロップ強化,強化された光ドロップの出現率とダメージがアップする,6,4</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>6</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>5</v>
       </c>
-      <c r="F19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I19" s="5" t="str">
         <f t="shared" si="2"/>
         <v>18,闇ドロップ強化,強化された闇ドロップの出現率とダメージがアップする,6,5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>3</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="5" t="str">
         <f t="shared" si="2"/>
         <v>19,操作時間延長,ドロップ操作時間が少し延びる,3,1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>6</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>8</v>
       </c>
-      <c r="F21" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="5" t="str">
         <f t="shared" si="2"/>
         <v>20,バインド回復,回復ドロップを横一列でそろえて消すとバインド状態が3ターン回復する（この覚醒スキルは覚醒無効の影響を受けない）,6,8</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="5" t="str">
         <f t="shared" si="2"/>
         <v>21,スキルブースト,チーム全体のスキルが1ターン溜まった状態で始まる,1,1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>8</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I23" s="5" t="str">
         <f t="shared" si="2"/>
         <v>22,火列強化,火ドロップを横一列でそろえて消すと火属性の攻撃力がアップする,8,1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>8</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I24" s="5" t="str">
         <f t="shared" si="2"/>
         <v>23,水列強化,水ドロップを横一列でそろえて消すと水属性の攻撃力がアップする,8,2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>8</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <v>3</v>
       </c>
-      <c r="F25" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I25" s="5" t="str">
         <f t="shared" si="2"/>
         <v>24,木列強化,木ドロップを横一列でそろえて消すと木属性の攻撃力がアップする,8,3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>8</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>4</v>
       </c>
-      <c r="F26" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="5" t="str">
         <f t="shared" si="2"/>
         <v>25,光列強化,光ドロップを横一列でそろえて消すと光属性の攻撃力がアップする,8,4</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>8</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>5</v>
       </c>
-      <c r="F27" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I27" s="5" t="str">
         <f t="shared" si="2"/>
         <v>26,闇列強化,闇ドロップを横一列でそろえて消すと闇属性の攻撃力がアップする,8,5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>3</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>3</v>
       </c>
-      <c r="F28" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I28" s="5" t="str">
         <f t="shared" si="2"/>
         <v>27,2体攻撃,自分と同じ属性のドロップを4個消すと攻撃力がアップし、敵2体に攻撃をする,3,3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>9</v>
       </c>
-      <c r="F29" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I29" t="str">
+      <c r="I29" s="5" t="str">
         <f t="shared" si="2"/>
         <v>28,封印耐性,スキル封印を無効化することがある,2,9</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>6</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>6</v>
       </c>
-      <c r="F30" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I30" t="str">
+      <c r="I30" s="5" t="str">
         <f t="shared" si="2"/>
         <v>29,回復ドロップ強化,強化された回復ドロップの出現率と\n回復力がアップす\n回復の4個消しで回復力がアップする,6,6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>8</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>8</v>
       </c>
-      <c r="F31" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="F31" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31" s="5" t="str">
         <f t="shared" si="2"/>
         <v>30,マルチブースト,協力プレイ時に自分の全パラメータがアップする,8,8</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>10</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <v>7</v>
       </c>
-      <c r="F32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I32" s="5" t="str">
         <f t="shared" si="2"/>
         <v>31,ドラゴンキラー,ドラゴンタイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,10,7</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>10</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <v>6</v>
       </c>
-      <c r="F33" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I33" s="5" t="str">
         <f t="shared" si="2"/>
         <v>32,神キラー,神タイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,10,6</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>10</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="5">
         <v>8</v>
       </c>
-      <c r="F34" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="F34" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I34" s="5" t="str">
         <f t="shared" si="2"/>
         <v>33,悪魔キラー,悪魔タイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,10,8</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>10</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="5">
         <v>9</v>
       </c>
-      <c r="F35" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="F35" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I35" t="str">
+      <c r="I35" s="5" t="str">
         <f t="shared" si="2"/>
         <v>34,マシンキラー,マシンタイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,10,9</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>11</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="5">
         <v>6</v>
       </c>
-      <c r="F36" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36">
+      <c r="F36" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I36" t="str">
+      <c r="I36" s="5" t="str">
         <f t="shared" si="2"/>
         <v>35,バランスキラー,バランスタイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,11,6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>11</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <v>7</v>
       </c>
-      <c r="F37" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="F37" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I37" t="str">
+      <c r="I37" s="5" t="str">
         <f t="shared" si="2"/>
         <v>36,攻撃キラー,攻撃タイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,11,7</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>11</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="5">
         <v>8</v>
       </c>
-      <c r="F38" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="F38" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I38" t="str">
+      <c r="I38" s="5" t="str">
         <f t="shared" si="2"/>
         <v>37,体力キラー,体力タイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,11,8</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>11</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <v>9</v>
       </c>
-      <c r="F39" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I39" t="str">
+      <c r="I39" s="5" t="str">
         <f t="shared" si="2"/>
         <v>38,回復キラー,回復タイプの敵に対して攻撃力が5倍になる。この覚醒が発動した敵に対してダメージの上限値(カンスト値)が1.2倍になる。,11,9</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>12</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="5">
         <v>6</v>
       </c>
-      <c r="F40" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="F40" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I40" s="5" t="str">
         <f t="shared" si="2"/>
         <v>39,進化用キラー,進化用タイプの敵に対して攻撃力がアップする,12,6</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>12</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="5">
         <v>7</v>
       </c>
-      <c r="F41" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="F41" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I41" t="str">
+      <c r="I41" s="5" t="str">
         <f t="shared" si="2"/>
         <v>40,能力覚醒用キラー,能力覚醒タイプの敵に対して攻撃力がアップする,12,7</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="5">
         <v>12</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="5">
         <v>8</v>
       </c>
-      <c r="F42" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42">
+      <c r="F42" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I42" t="str">
+      <c r="I42" s="5" t="str">
         <f t="shared" si="2"/>
         <v>41,強化合成用キラー,強化合成用タイプの敵に対して攻撃力がアップする。,12,8</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="5">
         <v>12</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="5">
         <v>9</v>
       </c>
-      <c r="F43" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43">
+      <c r="F43" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I43" t="str">
+      <c r="I43" s="5" t="str">
         <f t="shared" si="2"/>
         <v>42,売却用キラー,売却用タイプの敵に対して攻撃力がアップする,12,9</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
         <v>2</v>
       </c>
-      <c r="F44" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44">
+      <c r="F44" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I44" t="str">
+      <c r="I44" s="5" t="str">
         <f t="shared" si="2"/>
         <v>43,コンボ強化,7コンボ以上で攻撃力がアップする,1,2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="5">
         <v>6</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="5">
         <v>9</v>
       </c>
-      <c r="F45" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="F45" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I45" t="str">
+      <c r="I45" s="5" t="str">
         <f t="shared" si="2"/>
         <v>44,ガードブレイク,5属性同時攻撃すると敵の防御力を無視してダメージを与える,6,9</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5">
         <v>3</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="5">
         <v>8</v>
       </c>
-      <c r="F46" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="5" t="str">
         <f t="shared" si="2"/>
         <v>45,追加攻撃,回復ドロップを縦一列でそろえて消すと1ダメージの追い打ち,3,8</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="5">
         <v>8</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="5">
         <v>6</v>
       </c>
-      <c r="F47" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47">
+      <c r="F47" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I47" t="str">
+      <c r="I47" s="5" t="str">
         <f t="shared" si="2"/>
         <v>46,チームHP強化,チームのHPが5%アップする,8,6</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="5">
         <v>8</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="5">
         <v>7</v>
       </c>
-      <c r="F48" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48">
+      <c r="F48" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I48" t="str">
+      <c r="I48" s="5" t="str">
         <f t="shared" si="2"/>
         <v>47,チーム回復強化,チームの回復力が10%アップする,8,7</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="5">
         <v>3</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="5">
         <v>2</v>
       </c>
-      <c r="F49" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49">
+      <c r="F49" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I49" t="str">
+      <c r="I49" s="5" t="str">
         <f t="shared" si="2"/>
         <v>48,ダメージ無効貫通,自分と同じ属性のドロップを3×3の正方形で消すと攻撃力がアップし、ダメージ無効を貫通する,3,2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
         <v>9</v>
       </c>
-      <c r="F50" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50">
+      <c r="F50" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I50" t="str">
+      <c r="I50" s="5" t="str">
         <f t="shared" si="2"/>
         <v>49,覚醒アシスト,他のモンスターにアシストすると自分の覚醒スキルが付与される,1,9</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="5">
         <v>3</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="5">
         <v>9</v>
       </c>
-      <c r="F51" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51">
+      <c r="F51" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="5" t="str">
         <f t="shared" si="2"/>
         <v>50,超追加攻撃,回復ドロップを3×3の正方形で消すと攻撃力がアップし、 999万ダメージの追い打ち,3,9</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="5">
         <v>4</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="5">
         <v>9</v>
       </c>
-      <c r="F52" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52">
+      <c r="F52" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I52" t="str">
+      <c r="I52" s="5" t="str">
         <f t="shared" si="2"/>
         <v>51,スキルチャージ,5属性同時攻撃すると自分のスキルが1ターン溜まる,4,9</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="5">
         <v>2</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="5">
         <v>4</v>
       </c>
-      <c r="F53" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G53">
+      <c r="F53" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I53" t="str">
+      <c r="I53" s="5" t="str">
         <f t="shared" si="2"/>
         <v>52,バインド耐性+,自分自身へのバインド攻撃を無効化する,2,4</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="5">
         <v>4</v>
       </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54">
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I54" t="str">
+      <c r="I54" s="5" t="str">
         <f t="shared" si="2"/>
         <v>53,操作時間延長+,ドロップ操作時間が延びる,4,1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
         <v>5</v>
       </c>
-      <c r="F55" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55">
+      <c r="F55" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I55" t="str">
+      <c r="I55" s="5" t="str">
         <f t="shared" si="2"/>
         <v>54,雲耐性,雲攻撃を無効化する,1,5</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="5">
         <v>2</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="5">
         <v>5</v>
       </c>
-      <c r="F56" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56">
+      <c r="F56" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I56" t="str">
+      <c r="I56" s="5" t="str">
         <f t="shared" si="2"/>
         <v>55,操作不可耐性,操作不可攻撃を無効化する,2,5</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="5">
         <v>2</v>
       </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57">
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I57" t="str">
+      <c r="I57" s="5" t="str">
         <f t="shared" si="2"/>
         <v>56,スキルブースト+,チーム全体のスキルが2ターン溜まった状態で始まる,2,1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="5">
         <v>5</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="5">
         <v>2</v>
       </c>
-      <c r="F58" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I58" t="str">
+      <c r="I58" s="5" t="str">
         <f t="shared" si="2"/>
         <v>57,HP50％以上強化,HP50％以上で攻撃力がアップする,5,2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="5">
         <v>5</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="5">
         <v>3</v>
       </c>
-      <c r="F59" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G59">
+      <c r="F59" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I59" t="str">
+      <c r="I59" s="5" t="str">
         <f t="shared" si="2"/>
         <v>58,HP50％以下強化,HP50％以下で攻撃力がアップする,5,3</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="5">
         <v>3</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="5">
         <v>7</v>
       </c>
-      <c r="F60" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I60" t="str">
+      <c r="I60" s="5" t="str">
         <f t="shared" si="2"/>
         <v>59,回復L字消し,回復ドロップ5個をL字型に消すと敵から受けるダメージを軽減し、攻撃力がアップする,3,7</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="5">
         <v>3</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="5">
         <v>5</v>
       </c>
-      <c r="F61" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I61" t="str">
+      <c r="I61" s="5" t="str">
         <f t="shared" si="2"/>
         <v>60,L字消し攻撃,自分と同じ属性のドロップ5個をL字型に消すと攻撃力がアップし、ロック状態を解除する,3,5</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
         <v>3</v>
       </c>
-      <c r="F62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="F62" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I62" t="str">
+      <c r="I62" s="5" t="str">
         <f t="shared" si="2"/>
         <v>61,超コンボ強化,10コンボ以上で攻撃力が5倍になる,1,3</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="5">
         <v>5</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="5">
         <v>5</v>
       </c>
-      <c r="F63" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63">
+      <c r="F63" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I63" t="str">
+      <c r="I63" s="5" t="str">
         <f t="shared" si="2"/>
         <v>62,コンボドロップ,自分と同じ属性のドロップを10個以上つなげて消すと コンボドロップが落ちてくる(最大8個まで) さらに1コンボ加算(最大4コンボまで),5,5</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="5">
         <v>14</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="5">
         <v>9</v>
       </c>
-      <c r="F64" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G64">
+      <c r="F64" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I64" t="str">
+      <c r="I64" s="5" t="str">
         <f t="shared" si="2"/>
         <v>63,スキルボイス,全パラメータが10%アップする スキル使用時に声が出る（この覚醒スキルは覚醒無効の影響を受けない）,14,9</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="5">
         <v>15</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="5">
         <v>4</v>
       </c>
-      <c r="F65" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G65">
+      <c r="F65" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I65" t="str">
+      <c r="I65" s="5" t="str">
         <f t="shared" si="2"/>
         <v>64,ダンジョンボーナス,1人プレイの時にランク経験値、モンスター経験値、入手コイン、卵ドロップ率がほんの少し上昇,15,4</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="5">
         <v>13</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="5">
         <v>6</v>
       </c>
-      <c r="F66" t="b">
+      <c r="F66" s="5" t="b">
         <f t="shared" ref="F66:F129" si="4">OR(D66="",E66="")</f>
         <v>0</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="5">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="5">
         <f t="shared" ref="H66:H129" si="5">COUNTIF(G:G,G66)</f>
         <v>1</v>
       </c>
-      <c r="I66" t="str">
+      <c r="I66" s="5" t="str">
         <f t="shared" ref="I66:I129" si="6">A66&amp;","&amp;B66&amp;","&amp;C66&amp;","&amp;D66&amp;","&amp;E66</f>
         <v>65,HP弱化,HPが2500ダウンする(最小1まで),13,6</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="5">
         <v>13</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="5">
         <v>7</v>
       </c>
-      <c r="F67" t="b">
+      <c r="F67" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="5">
         <f t="shared" ref="G67:G131" si="7">(D67-1)*9+E67</f>
         <v>115</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I67" t="str">
+      <c r="I67" s="5" t="str">
         <f t="shared" si="6"/>
         <v>66,攻撃弱化,攻撃力が1000ダウンする(最小1まで),13,7</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="5">
         <v>13</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="5">
         <v>8</v>
       </c>
-      <c r="F68" t="b">
+      <c r="F68" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="5">
         <f t="shared" si="7"/>
         <v>116</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I68" t="str">
+      <c r="I68" s="5" t="str">
         <f t="shared" si="6"/>
         <v>67,回復弱化,回復力が2000ダウンする,13,8</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="5">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="5">
         <v>6</v>
       </c>
-      <c r="F69" t="b">
+      <c r="F69" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="5">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I69" t="str">
+      <c r="I69" s="5" t="str">
         <f t="shared" si="6"/>
         <v>68,暗闇耐性＋,暗闇攻撃を無効化する,2,6</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="5">
         <v>2</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="5">
         <v>7</v>
       </c>
-      <c r="F70" t="b">
+      <c r="F70" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="5">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I70" t="str">
+      <c r="I70" s="5" t="str">
         <f t="shared" si="6"/>
         <v>69,お邪魔耐性＋,お邪魔攻撃や爆弾攻撃を無効化する,2,7</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="5">
         <v>2</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="5">
         <v>8</v>
       </c>
-      <c r="F71" t="b">
+      <c r="F71" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="5">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I71" t="str">
+      <c r="I71" s="5" t="str">
         <f t="shared" si="6"/>
         <v>70,毒耐性＋,毒攻撃を無効化する,2,8</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="5">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="5">
         <v>9</v>
       </c>
-      <c r="F72" t="b">
+      <c r="F72" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="5">
         <f t="shared" si="7"/>
         <v>63</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I72" t="str">
+      <c r="I72" s="5" t="str">
         <f t="shared" si="6"/>
         <v>71,お邪魔ドロップの加護,お邪魔ドロップが落ちてくるようになり、 お邪魔ドロップを消すと攻撃力がアップする,7,9</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="5">
         <v>8</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="5">
         <v>9</v>
       </c>
-      <c r="F73" t="b">
+      <c r="F73" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="5">
         <f t="shared" si="7"/>
         <v>72</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I73" t="str">
+      <c r="I73" s="5" t="str">
         <f t="shared" si="6"/>
         <v>72,毒ドロップの加護,毒ドロップが落ちてくるようになり、毒か猛毒ドロップを消すと攻撃力がアップする,8,9</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="5">
         <v>11</v>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" t="b">
+      <c r="E74" s="5">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="5">
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I74" t="str">
+      <c r="I74" s="5" t="str">
         <f t="shared" si="6"/>
         <v>73,火コンボ強化,火ドロップで2コンボ以上すると、火属性の攻撃力がアップする,11,1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="5">
         <v>11</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="5">
         <v>2</v>
       </c>
-      <c r="F75" t="b">
+      <c r="F75" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="5">
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I75" t="str">
+      <c r="I75" s="5" t="str">
         <f t="shared" si="6"/>
         <v>74,水コンボ強化,水ドロップで2コンボ以上すると、水属性の攻撃力がアップする,11,2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="5">
         <v>11</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="5">
         <v>3</v>
       </c>
-      <c r="F76" t="b">
+      <c r="F76" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="5">
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I76" t="str">
+      <c r="I76" s="5" t="str">
         <f t="shared" si="6"/>
         <v>75,木コンボ強化,木ドロップで2コンボ以上すると、木属性の攻撃力がアップする,11,3</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="5">
         <v>11</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="5">
         <v>4</v>
       </c>
-      <c r="F77" t="b">
+      <c r="F77" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="5">
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I77" t="str">
+      <c r="I77" s="5" t="str">
         <f t="shared" si="6"/>
         <v>76,光コンボ強化,光ドロップで2コンボ以上すると、光属性の攻撃力がアップする,11,4</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="5">
         <v>11</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="5">
         <v>5</v>
       </c>
-      <c r="F78" t="b">
+      <c r="F78" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="5">
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I78" t="str">
+      <c r="I78" s="5" t="str">
         <f t="shared" si="6"/>
         <v>77,闇コンボ強化,闇ドロップで2コンボ以上すると、闇属性の攻撃力がアップする,11,5</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="5">
         <v>3</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="5">
         <v>4</v>
       </c>
-      <c r="F79" t="b">
+      <c r="F79" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="5">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I79" t="str">
+      <c r="I79" s="5" t="str">
         <f t="shared" si="6"/>
         <v>78,十字消し攻撃,自分と同じ属性のドロップ5個を十字型に消すと攻撃力がアップし、超暗闇目覚めを3ターン回復する,3,4</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="5">
         <v>4</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="5">
         <v>6</v>
       </c>
-      <c r="F80" t="b">
+      <c r="F80" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="5">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I80" t="str">
+      <c r="I80" s="5" t="str">
         <f t="shared" si="6"/>
         <v>79,3色攻撃強化,3色以上同時攻撃で攻撃力がアップ(2.5倍)する,4,6</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="5">
         <v>4</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="5">
         <v>7</v>
       </c>
-      <c r="F81" t="b">
+      <c r="F81" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="5">
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I81" t="str">
+      <c r="I81" s="5" t="str">
         <f t="shared" si="6"/>
         <v>80,4色攻撃強化,4色以上同時攻撃で攻撃力がアップ(3.5倍)する,4,7</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="5">
         <v>4</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="5">
         <v>8</v>
       </c>
-      <c r="F82" t="b">
+      <c r="F82" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="5">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I82" t="str">
+      <c r="I82" s="5" t="str">
         <f t="shared" si="6"/>
         <v>81,5色攻撃強化,5色同時攻撃で攻撃力が4.5倍になる,4,8</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="5">
         <v>5</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="5">
         <v>4</v>
       </c>
-      <c r="F83" t="b">
+      <c r="F83" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="5">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I83" t="str">
+      <c r="I83" s="5" t="str">
         <f t="shared" si="6"/>
         <v>82,超つなげ消し強化,自分と同じ属性のドロップを12個以上つなげて消すと、攻撃力が12倍になる,5,4</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="5">
         <v>14</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="5">
         <v>2</v>
       </c>
-      <c r="F84" t="b">
+      <c r="F84" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="5">
         <f t="shared" si="7"/>
         <v>119</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I84" t="str">
+      <c r="I84" s="5" t="str">
         <f t="shared" si="6"/>
         <v>83,ドラゴンタイプ追加,ダンジョン潜入中、ドラゴンタイプが追加される,14,2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="5">
         <v>14</v>
       </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" t="b">
+      <c r="E85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="5">
         <f t="shared" si="7"/>
         <v>118</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I85" t="str">
+      <c r="I85" s="5" t="str">
         <f t="shared" si="6"/>
         <v>84,神タイプ追加,ダンジョン潜入中、神タイプが追加される,14,1</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="5">
         <v>14</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="5">
         <v>3</v>
       </c>
-      <c r="F86" t="b">
+      <c r="F86" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="5">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I86" t="str">
+      <c r="I86" s="5" t="str">
         <f t="shared" si="6"/>
         <v>85,悪魔タイプ追加,ダンジョン潜入中、悪魔タイプが追加される,14,3</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="5">
         <v>14</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="5">
         <v>4</v>
       </c>
-      <c r="F87" t="b">
+      <c r="F87" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="5">
         <f t="shared" si="7"/>
         <v>121</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I87" t="str">
+      <c r="I87" s="5" t="str">
         <f t="shared" si="6"/>
         <v>86,マシンタイプ追加,ダンジョン潜入中、マシンタイプが追加される,14,4</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="5">
         <v>14</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="5">
         <v>5</v>
       </c>
-      <c r="F88" t="b">
+      <c r="F88" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="5">
         <f t="shared" si="7"/>
         <v>122</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I88" t="str">
+      <c r="I88" s="5" t="str">
         <f t="shared" si="6"/>
         <v>87,バランスタイプ追加,ダンジョン潜入中、バランスタイプが追加される,14,5</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="5">
         <v>14</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="5">
         <v>6</v>
       </c>
-      <c r="F89" t="b">
+      <c r="F89" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="5">
         <f t="shared" si="7"/>
         <v>123</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I89" t="str">
+      <c r="I89" s="5" t="str">
         <f t="shared" si="6"/>
         <v>88,攻撃タイプ追加,ダンジョン潜入中、攻撃タイプが追加される,14,6</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="5">
         <v>14</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="5">
         <v>7</v>
       </c>
-      <c r="F90" t="b">
+      <c r="F90" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="5">
         <f t="shared" si="7"/>
         <v>124</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I90" t="str">
+      <c r="I90" s="5" t="str">
         <f t="shared" si="6"/>
         <v>89,体力タイプ追加,ダンジョン潜入中、体力タイプが追加される,14,7</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="5">
         <v>14</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="5">
         <v>8</v>
       </c>
-      <c r="F91" t="b">
+      <c r="F91" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="5">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I91" t="str">
+      <c r="I91" s="5" t="str">
         <f t="shared" si="6"/>
         <v>90,回復タイプ追加,ダンジョン潜入中、回復タイプが追加される,14,8</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="5">
         <v>13</v>
       </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="b">
+      <c r="E92" s="5">
+        <v>1</v>
+      </c>
+      <c r="F92" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="5">
         <f t="shared" si="7"/>
         <v>109</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I92" t="str">
+      <c r="I92" s="5" t="str">
         <f t="shared" si="6"/>
         <v>91,副属性変更・火,ダンジョン潜入中、副属性が火属性に変更される （ダメージは攻撃力の15％分）,13,1</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="5">
         <v>13</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="5">
         <v>2</v>
       </c>
-      <c r="F93" t="b">
+      <c r="F93" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="5">
         <f t="shared" si="7"/>
         <v>110</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I93" t="str">
+      <c r="I93" s="5" t="str">
         <f t="shared" si="6"/>
         <v>92,副属性変更・水,ダンジョン潜入中、副属性が水属性に変更される （ダメージは攻撃力の15％分）,13,2</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="5">
         <v>13</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="5">
         <v>3</v>
       </c>
-      <c r="F94" t="b">
+      <c r="F94" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="5">
         <f t="shared" si="7"/>
         <v>111</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I94" t="str">
+      <c r="I94" s="5" t="str">
         <f t="shared" si="6"/>
         <v>93,副属性変更・木,ダンジョン潜入中、副属性が木属性に変更される （ダメージは攻撃力の15％分）,13,3</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="5">
         <v>13</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="5">
         <v>4</v>
       </c>
-      <c r="F95" t="b">
+      <c r="F95" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="5">
         <f t="shared" si="7"/>
         <v>112</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I95" t="str">
+      <c r="I95" s="5" t="str">
         <f t="shared" si="6"/>
         <v>94,副属性変更・光,ダンジョン潜入中、副属性が光属性に変更される （ダメージは攻撃力の15％分）,13,4</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="5">
         <v>13</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="5">
         <v>5</v>
       </c>
-      <c r="F96" t="b">
+      <c r="F96" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="5">
         <f t="shared" si="7"/>
         <v>113</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I96" t="str">
+      <c r="I96" s="5" t="str">
         <f t="shared" si="6"/>
         <v>95,副属性変更・闇,ダンジョン潜入中、副属性が闇属性に変更される （ダメージは攻撃力の15％分）,13,5</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="5">
         <v>4</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="5">
         <v>3</v>
       </c>
-      <c r="F97" t="b">
+      <c r="F97" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="5">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I97" t="str">
+      <c r="I97" s="5" t="str">
         <f t="shared" si="6"/>
         <v>96,2体攻撃＋,自分と同じ属性のドロップを4個消すと 攻撃力がかなりアップし、敵2体に攻撃をする (2体攻撃2個分の効果),4,3</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="5">
         <v>5</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="5">
         <v>9</v>
       </c>
-      <c r="F98" t="b">
+      <c r="F98" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="5">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I98" t="str">
+      <c r="I98" s="5" t="str">
         <f t="shared" si="6"/>
         <v>97,スキルチャージ＋,5属性同時攻撃すると 自分のスキルが2ターン溜まる,5,9</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="5">
         <v>7</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="5">
         <v>7</v>
       </c>
-      <c r="F99" t="b">
+      <c r="F99" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="5">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I99" t="str">
+      <c r="I99" s="5" t="str">
         <f t="shared" si="6"/>
         <v>98,自動回復＋,ドロップを消したターン、 HPが2000回復する,7,7</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="5">
         <v>7</v>
       </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="b">
+      <c r="E100" s="5">
+        <v>1</v>
+      </c>
+      <c r="F100" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="5">
         <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I100" t="str">
+      <c r="I100" s="5" t="str">
         <f t="shared" si="6"/>
         <v>99,火ドロップ強化＋,強化された火ドロップの出現率と ダメージがかなりアップする （火ドロップ強化2個分の効果）,7,1</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="5">
         <v>7</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="5">
         <v>2</v>
       </c>
-      <c r="F101" t="b">
+      <c r="F101" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="5">
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I101" t="str">
+      <c r="I101" s="5" t="str">
         <f t="shared" si="6"/>
         <v>100,水ドロップ強化＋,強化された水ドロップの出現率と ダメージがかなりアップする （水ドロップ強化2個分の効果）,7,2</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="5">
         <v>7</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="5">
         <v>3</v>
       </c>
-      <c r="F102" t="b">
+      <c r="F102" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="5">
         <f t="shared" si="7"/>
         <v>57</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I102" t="str">
+      <c r="I102" s="5" t="str">
         <f t="shared" si="6"/>
         <v>101,木ドロップ強化＋,強化された木ドロップの出現率と ダメージがかなりアップする （木ドロップ強化2個分の効果）,7,3</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="5">
         <v>7</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="5">
         <v>4</v>
       </c>
-      <c r="F103" t="b">
+      <c r="F103" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="5">
         <f t="shared" si="7"/>
         <v>58</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I103" t="str">
+      <c r="I103" s="5" t="str">
         <f t="shared" si="6"/>
         <v>102,光ドロップ強化＋,強化された光ドロップの出現率と ダメージがかなりアップする （光ドロップ強化2個分の効果）,7,4</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="5">
         <v>7</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="5">
         <v>5</v>
       </c>
-      <c r="F104" t="b">
+      <c r="F104" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="5">
         <f t="shared" si="7"/>
         <v>59</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I104" t="str">
+      <c r="I104" s="5" t="str">
         <f t="shared" si="6"/>
         <v>103,闇ドロップ強化＋,強化された闇ドロップの出現率と ダメージがかなりアップする （闇ドロップ強化2個分の効果）,7,5</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="5">
         <v>7</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="5">
         <v>6</v>
       </c>
-      <c r="F105" t="b">
+      <c r="F105" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="5">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I105" t="str">
+      <c r="I105" s="5" t="str">
         <f t="shared" si="6"/>
         <v>104,回復ドロップ強化＋,強化された回復ドロップの出現率と 回復力がかなりアップする 回復の4個消しで回復力がアップする (回復ドロップ強化2個分の効果),7,6</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="5">
         <v>13</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="5">
         <v>9</v>
       </c>
-      <c r="F106" t="b">
+      <c r="F106" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="5">
         <f t="shared" si="7"/>
         <v>117</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I106" t="str">
+      <c r="I106" s="5" t="str">
         <f t="shared" si="6"/>
         <v>105,スキルブーストマイナス,チーム全体のスキルが 1ターン減った状態で始まる,13,9</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="5">
         <v>5</v>
       </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107" t="b">
+      <c r="E107" s="5">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="5">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I107" t="str">
+      <c r="I107" s="5" t="str">
         <f t="shared" si="6"/>
         <v>106,浮遊,自分自身への超重力効果を緩和する,5,1</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="5">
         <v>2</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="5">
         <v>2</v>
       </c>
-      <c r="F108" t="b">
+      <c r="F108" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="5">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I108" t="str">
+      <c r="I108" s="5" t="str">
         <f t="shared" si="6"/>
         <v>107,コンボ強化＋,7コンボ以上で攻撃力がかなりアップする（コンボ強化2個分の効果）,2,2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="5">
         <v>4</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="5">
         <v>5</v>
       </c>
-      <c r="F109" t="b">
+      <c r="F109" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="5">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I109" t="str">
+      <c r="I109" s="5" t="str">
         <f t="shared" si="6"/>
         <v>108,L字消し攻撃＋,自分と同じ属性のドロップ5個をL字型に消すと攻撃力がかなりアップし、ロック状態を解除する（L字消し攻撃2個分の効果）,4,5</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="5">
         <v>4</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="5">
         <v>2</v>
       </c>
-      <c r="F110" t="b">
+      <c r="F110" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="5">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I110" t="str">
+      <c r="I110" s="5" t="str">
         <f t="shared" si="6"/>
         <v>109,ダメージ無効貫通＋,自分と同じ属性のドロップを3×3の正方形で消すと攻撃力がアップ（12.25倍）し、ダメージ無効を貫通する（ダメージ無効貫通2個分の効果）,4,2</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="5">
         <v>4</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="5">
         <v>4</v>
       </c>
-      <c r="F111" t="b">
+      <c r="F111" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="5">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I111" t="str">
+      <c r="I111" s="5" t="str">
         <f t="shared" si="6"/>
         <v>110,十字消し攻撃＋,自分と同じ属性のドロップ5個を十字型に消すと攻撃力がアップ（9倍）し、超暗闇目覚めを6ターン回復する（十字消し攻撃2個分の効果）,4,4</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="5">
         <v>2</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="5">
         <v>3</v>
       </c>
-      <c r="F112" t="b">
+      <c r="F112" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="5">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I112" t="str">
+      <c r="I112" s="5" t="str">
         <f t="shared" si="6"/>
         <v>111,超コンボ強化＋,10コンボ以上で攻撃力がかなりアップ（5倍）する（超コンボ強化2個分の効果）,2,3</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="5">
         <v>5</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="5">
         <v>6</v>
       </c>
-      <c r="F113" t="b">
+      <c r="F113" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="5">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I113" t="str">
+      <c r="I113" s="5" t="str">
         <f t="shared" si="6"/>
         <v>112,3色攻撃強化＋,3色以上同時攻撃で攻撃力がかなりアップ(6.25倍)する（3色攻撃強化2個分の効果）,5,6</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="5">
         <v>5</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="5">
         <v>7</v>
       </c>
-      <c r="F114" t="b">
+      <c r="F114" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="5">
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I114" t="str">
+      <c r="I114" s="5" t="str">
         <f t="shared" si="6"/>
         <v>113,4色攻撃強化＋,4色以上同時攻撃で攻撃力がかなりアップ(12.25倍)する（4色攻撃強化2個分の効果）,5,7</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="5">
         <v>5</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="5">
         <v>8</v>
       </c>
-      <c r="F115" t="b">
+      <c r="F115" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="5">
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I115" t="str">
+      <c r="I115" s="5" t="str">
         <f t="shared" si="6"/>
         <v>114,5色攻撃強化＋,5色同時攻撃で攻撃力ががかなりアップ(20.25倍)する（5色攻撃強化2個分の効果）,5,8</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="5">
         <v>7</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="5">
         <v>8</v>
       </c>
-      <c r="F116" t="b">
+      <c r="F116" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="5">
         <f t="shared" si="7"/>
         <v>62</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I116" t="str">
+      <c r="I116" s="5" t="str">
         <f t="shared" si="6"/>
         <v>115,バインド回復＋,回復ドロップを横一列でそろえて消すとバインド状態が6ターン回復する（この覚醒スキルは覚醒無効の影響を受けない）（バインド回復2個分の効果）,7,8</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="5">
         <v>9</v>
       </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117" t="b">
+      <c r="E117" s="5">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="5">
         <f t="shared" si="7"/>
         <v>73</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I117" t="str">
+      <c r="I117" s="5" t="str">
         <f t="shared" si="6"/>
         <v>116,火列強化×3,火ドロップを横一列でそろえて消すと火属性の攻撃力がアップする（60%）,9,1</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="5">
         <v>9</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="5">
         <v>2</v>
       </c>
-      <c r="F118" t="b">
+      <c r="F118" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="5">
         <f t="shared" si="7"/>
         <v>74</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I118" t="str">
+      <c r="I118" s="5" t="str">
         <f t="shared" si="6"/>
         <v>117,水列強化×3,水ドロップを横一列でそろえて消すと水属性の攻撃力がアップする（60%）,9,2</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="5">
         <v>9</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="5">
         <v>3</v>
       </c>
-      <c r="F119" t="b">
+      <c r="F119" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="5">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I119" t="str">
+      <c r="I119" s="5" t="str">
         <f t="shared" si="6"/>
         <v>118,木列強化×3,木ドロップを横一列でそろえて消すと木属性の攻撃力がアップする（60%）,9,3</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="5">
         <v>9</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="5">
         <v>4</v>
       </c>
-      <c r="F120" t="b">
+      <c r="F120" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="5">
         <f t="shared" si="7"/>
         <v>76</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I120" t="str">
+      <c r="I120" s="5" t="str">
         <f t="shared" si="6"/>
         <v>119,光列強化×3,光ドロップを横一列でそろえて消すと光属性の攻撃力がアップする（60%）,9,4</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="5">
         <v>9</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="5">
         <v>5</v>
       </c>
-      <c r="F121" t="b">
+      <c r="F121" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="5">
         <f t="shared" si="7"/>
         <v>77</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I121" t="str">
+      <c r="I121" s="5" t="str">
         <f t="shared" si="6"/>
         <v>120,闇列強化×3,闇ドロップを横一列でそろえて消すと闇属性の攻撃力がアップする（60%）,9,5</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="5">
         <v>12</v>
       </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122" t="b">
+      <c r="E122" s="5">
+        <v>1</v>
+      </c>
+      <c r="F122" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="5">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I122" t="str">
+      <c r="I122" s="5" t="str">
         <f t="shared" si="6"/>
         <v>121,火コンボ強化＋,火ドロップで2コンボ以上すると、火属性の攻撃力がアップする（火コンボ強化2個分の効果）,12,1</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="5">
         <v>12</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="5">
         <v>2</v>
       </c>
-      <c r="F123" t="b">
+      <c r="F123" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="5">
         <f t="shared" si="7"/>
         <v>101</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I123" t="str">
+      <c r="I123" s="5" t="str">
         <f t="shared" si="6"/>
         <v>122,水コンボ強化＋,水ドロップで2コンボ以上すると、水属性の攻撃力がアップする（水コンボ強化2個分の効果）,12,2</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="5">
         <v>12</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="5">
         <v>3</v>
       </c>
-      <c r="F124" t="b">
+      <c r="F124" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="5">
         <f t="shared" si="7"/>
         <v>102</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I124" t="str">
+      <c r="I124" s="5" t="str">
         <f t="shared" si="6"/>
         <v>123,木コンボ強化＋,木ドロップで2コンボ以上すると、木属性の攻撃力がアップする（木コンボ強化2個分の効果）,12,3</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="5">
         <v>12</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="5">
         <v>4</v>
       </c>
-      <c r="F125" t="b">
+      <c r="F125" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="5">
         <f t="shared" si="7"/>
         <v>103</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I125" t="str">
+      <c r="I125" s="5" t="str">
         <f t="shared" si="6"/>
         <v>124,光コンボ強化＋,光ドロップで2コンボ以上すると、光属性の攻撃力がアップする（光コンボ強化2個分の効果）,12,4</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="5">
         <v>12</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="5">
         <v>5</v>
       </c>
-      <c r="F126" t="b">
+      <c r="F126" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="5">
         <f t="shared" si="7"/>
         <v>104</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I126" t="str">
+      <c r="I126" s="5" t="str">
         <f t="shared" si="6"/>
         <v>125,闇コンボ強化＋,闇ドロップで2コンボ以上すると、闇属性の攻撃力がアップする（闇コンボ強化2個分の効果）,12,5</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="5">
         <v>3</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="5">
         <v>6</v>
       </c>
-      <c r="F127" t="b">
+      <c r="F127" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="5">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I127" t="str">
+      <c r="I127" s="5" t="str">
         <f t="shared" si="6"/>
         <v>126,T字消し攻撃,自分と同じ属性のドロップ5個をT字型に消すと攻撃力が4倍になり、ドロップ強化をした状態で攻撃する,3,6</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="5">
         <v>9</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="5">
         <v>9</v>
       </c>
-      <c r="F128" t="b">
+      <c r="F128" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="5">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I128" t="str">
+      <c r="I128" s="5" t="str">
         <f t="shared" si="6"/>
         <v>127,全パラメータ強化,自分の全パラメータが1.5倍にアップする,9,9</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="5">
         <v>15</v>
       </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129" t="b">
+      <c r="E129" s="5">
+        <v>1</v>
+      </c>
+      <c r="F129" s="5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="5">
         <f t="shared" si="7"/>
         <v>127</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I129" t="str">
+      <c r="I129" s="5" t="str">
         <f t="shared" si="6"/>
         <v>128,陽の加護,陽の表示があるダンジョンフロアでHPと回復力が1.2倍、攻撃力は5倍になる,15,1</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="5">
         <v>15</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="5">
         <v>2</v>
       </c>
-      <c r="F130" t="b">
+      <c r="F130" s="5" t="b">
         <f>OR(D130="",E130="")</f>
         <v>0</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="5">
         <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="5">
         <f>COUNTIF(G:G,G130)</f>
         <v>1</v>
       </c>
-      <c r="I130" t="str">
+      <c r="I130" s="5" t="str">
         <f t="shared" ref="I130:I131" si="8">A130&amp;","&amp;B130&amp;","&amp;C130&amp;","&amp;D130&amp;","&amp;E130</f>
         <v>129,陰の加護,陰の表示があるダンジョンフロアでHPと回復力が1.2倍、攻撃力は5倍になる,15,2</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="5">
         <v>15</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="5">
         <v>3</v>
       </c>
-      <c r="F131" t="b">
+      <c r="F131" s="5" t="b">
         <f>OR(D131="",E131="")</f>
         <v>0</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="5">
         <f t="shared" si="7"/>
         <v>129</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="5">
         <f>COUNTIF(G:G,G131)</f>
         <v>1</v>
       </c>
-      <c r="I131" t="str">
+      <c r="I131" s="5" t="str">
         <f t="shared" si="8"/>
         <v>130,熟成,バトル5以降で全パラメータが1.5倍、バトル10以降で全パラメータが2倍になる。,15,3</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="5">
         <v>15</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="5">
         <v>5</v>
       </c>
-      <c r="F132" t="b">
+      <c r="F132" s="5" t="b">
         <f>OR(D132="",E132="")</f>
         <v>0</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="5">
         <f t="shared" ref="G132" si="9">(D132-1)*9+E132</f>
         <v>131</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="5">
         <f>COUNTIF(G:G,G132)</f>
         <v>1</v>
       </c>
-      <c r="I132" t="str">
+      <c r="I132" s="5" t="str">
         <f>A132&amp;","&amp;B132&amp;","&amp;C132&amp;","&amp;D132&amp;","&amp;E132</f>
         <v>131,部位破壊ボーナス,部位破壊素材のドロップ率が10%上昇,15,5</v>
       </c>
@@ -5987,4 +6112,828 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB8BA99-429F-4320-9276-A53839062A3A}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <f>VLOOKUP(A2,awakenskill!$A:$B,2,FALSE)</f>
+        <v>バインド耐性</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <f>VLOOKUP(C2,awakenskill!$A:$B,2,FALSE)</f>
+        <v>バインド耐性+</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f t="shared" ref="F2:F34" si="0">T(A2)&amp;","&amp;T(C2)&amp;","&amp;E2</f>
+        <v>10,52,2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f>VLOOKUP(A3,awakenskill!$A:$B,2,FALSE)</f>
+        <v>暗闇耐性</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>VLOOKUP(C3,awakenskill!$A:$B,2,FALSE)</f>
+        <v>暗闇耐性＋</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>11,68,5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f>VLOOKUP(A4,awakenskill!$A:$B,2,FALSE)</f>
+        <v>お邪魔耐性</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f>VLOOKUP(C4,awakenskill!$A:$B,2,FALSE)</f>
+        <v>お邪魔耐性＋</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>12,69,5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f>VLOOKUP(A5,awakenskill!$A:$B,2,FALSE)</f>
+        <v>毒耐性</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>VLOOKUP(C5,awakenskill!$A:$B,2,FALSE)</f>
+        <v>毒耐性＋</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>13,70,5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f>VLOOKUP(A6,awakenskill!$A:$B,2,FALSE)</f>
+        <v>操作時間延長</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f>VLOOKUP(C6,awakenskill!$A:$B,2,FALSE)</f>
+        <v>操作時間延長+</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>19,53,2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f>VLOOKUP(A7,awakenskill!$A:$B,2,FALSE)</f>
+        <v>スキルブースト</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>VLOOKUP(C7,awakenskill!$A:$B,2,FALSE)</f>
+        <v>スキルブースト+</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>21,56,2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>VLOOKUP(A8,awakenskill!$A:$B,2,FALSE)</f>
+        <v>2体攻撃</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f>VLOOKUP(C8,awakenskill!$A:$B,2,FALSE)</f>
+        <v>2体攻撃＋</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>27,96,2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>VLOOKUP(A9,awakenskill!$A:$B,2,FALSE)</f>
+        <v>スキルチャージ</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f>VLOOKUP(C9,awakenskill!$A:$B,2,FALSE)</f>
+        <v>スキルチャージ＋</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>51,97,2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>VLOOKUP(A10,awakenskill!$A:$B,2,FALSE)</f>
+        <v>自動回復</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f>VLOOKUP(C10,awakenskill!$A:$B,2,FALSE)</f>
+        <v>自動回復＋</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>9,98,2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>VLOOKUP(A11,awakenskill!$A:$B,2,FALSE)</f>
+        <v>火ドロップ強化</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f>VLOOKUP(C11,awakenskill!$A:$B,2,FALSE)</f>
+        <v>火ドロップ強化＋</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>14,99,2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f>VLOOKUP(A12,awakenskill!$A:$B,2,FALSE)</f>
+        <v>水ドロップ強化</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f>VLOOKUP(C12,awakenskill!$A:$B,2,FALSE)</f>
+        <v>水ドロップ強化＋</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>15,100,2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f>VLOOKUP(A13,awakenskill!$A:$B,2,FALSE)</f>
+        <v>木ドロップ強化</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f>VLOOKUP(C13,awakenskill!$A:$B,2,FALSE)</f>
+        <v>木ドロップ強化＋</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>16,101,2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f>VLOOKUP(A14,awakenskill!$A:$B,2,FALSE)</f>
+        <v>光ドロップ強化</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f>VLOOKUP(C14,awakenskill!$A:$B,2,FALSE)</f>
+        <v>光ドロップ強化＋</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>17,102,2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f>VLOOKUP(A15,awakenskill!$A:$B,2,FALSE)</f>
+        <v>闇ドロップ強化</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f>VLOOKUP(C15,awakenskill!$A:$B,2,FALSE)</f>
+        <v>闇ドロップ強化＋</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>18,103,2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f>VLOOKUP(A16,awakenskill!$A:$B,2,FALSE)</f>
+        <v>回復ドロップ強化</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f>VLOOKUP(C16,awakenskill!$A:$B,2,FALSE)</f>
+        <v>回復ドロップ強化＋</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>29,104,2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f>VLOOKUP(A17,awakenskill!$A:$B,2,FALSE)</f>
+        <v>コンボ強化</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f>VLOOKUP(C17,awakenskill!$A:$B,2,FALSE)</f>
+        <v>コンボ強化＋</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>43,107,2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f>VLOOKUP(A18,awakenskill!$A:$B,2,FALSE)</f>
+        <v>L字消し攻撃</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f>VLOOKUP(C18,awakenskill!$A:$B,2,FALSE)</f>
+        <v>L字消し攻撃＋</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>60,108,2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f>VLOOKUP(A19,awakenskill!$A:$B,2,FALSE)</f>
+        <v>ダメージ無効貫通</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f>VLOOKUP(C19,awakenskill!$A:$B,2,FALSE)</f>
+        <v>ダメージ無効貫通＋</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>48,109,2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f>VLOOKUP(A20,awakenskill!$A:$B,2,FALSE)</f>
+        <v>十字消し攻撃</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f>VLOOKUP(C20,awakenskill!$A:$B,2,FALSE)</f>
+        <v>十字消し攻撃＋</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>78,110,2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f>VLOOKUP(A21,awakenskill!$A:$B,2,FALSE)</f>
+        <v>超コンボ強化</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f>VLOOKUP(C21,awakenskill!$A:$B,2,FALSE)</f>
+        <v>超コンボ強化＋</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>61,111,2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f>VLOOKUP(A22,awakenskill!$A:$B,2,FALSE)</f>
+        <v>3色攻撃強化</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f>VLOOKUP(C22,awakenskill!$A:$B,2,FALSE)</f>
+        <v>3色攻撃強化＋</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>79,112,2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f>VLOOKUP(A23,awakenskill!$A:$B,2,FALSE)</f>
+        <v>4色攻撃強化</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>VLOOKUP(C23,awakenskill!$A:$B,2,FALSE)</f>
+        <v>4色攻撃強化＋</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>80,113,2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f>VLOOKUP(A24,awakenskill!$A:$B,2,FALSE)</f>
+        <v>5色攻撃強化</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f>VLOOKUP(C24,awakenskill!$A:$B,2,FALSE)</f>
+        <v>5色攻撃強化＋</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>81,114,2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f>VLOOKUP(A25,awakenskill!$A:$B,2,FALSE)</f>
+        <v>バインド回復</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f>VLOOKUP(C25,awakenskill!$A:$B,2,FALSE)</f>
+        <v>バインド回復＋</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>20,115,2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>VLOOKUP(A26,awakenskill!$A:$B,2,FALSE)</f>
+        <v>火列強化</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f>VLOOKUP(C26,awakenskill!$A:$B,2,FALSE)</f>
+        <v>火列強化×3</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>22,116,3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f>VLOOKUP(A27,awakenskill!$A:$B,2,FALSE)</f>
+        <v>水列強化</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f>VLOOKUP(C27,awakenskill!$A:$B,2,FALSE)</f>
+        <v>水列強化×3</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>23,117,3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="5" t="str">
+        <f>VLOOKUP(A28,awakenskill!$A:$B,2,FALSE)</f>
+        <v>木列強化</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" s="5" t="str">
+        <f>VLOOKUP(C28,awakenskill!$A:$B,2,FALSE)</f>
+        <v>木列強化×3</v>
+      </c>
+      <c r="E28" s="5">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>24,118,3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <f>VLOOKUP(A29,awakenskill!$A:$B,2,FALSE)</f>
+        <v>光列強化</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <f>VLOOKUP(C29,awakenskill!$A:$B,2,FALSE)</f>
+        <v>光列強化×3</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>25,119,3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>VLOOKUP(A30,awakenskill!$A:$B,2,FALSE)</f>
+        <v>闇列強化</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <f>VLOOKUP(C30,awakenskill!$A:$B,2,FALSE)</f>
+        <v>闇列強化×3</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>26,120,3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <f>VLOOKUP(A31,awakenskill!$A:$B,2,FALSE)</f>
+        <v>火コンボ強化</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <f>VLOOKUP(C31,awakenskill!$A:$B,2,FALSE)</f>
+        <v>火コンボ強化＋</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>73,121,2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>VLOOKUP(A32,awakenskill!$A:$B,2,FALSE)</f>
+        <v>水コンボ強化</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D32" s="5" t="str">
+        <f>VLOOKUP(C32,awakenskill!$A:$B,2,FALSE)</f>
+        <v>水コンボ強化＋</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>74,122,2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <f>VLOOKUP(A33,awakenskill!$A:$B,2,FALSE)</f>
+        <v>木コンボ強化</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f>VLOOKUP(C33,awakenskill!$A:$B,2,FALSE)</f>
+        <v>木コンボ強化＋</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>75,123,2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="5" t="str">
+        <f>VLOOKUP(A34,awakenskill!$A:$B,2,FALSE)</f>
+        <v>光コンボ強化</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D34" s="5" t="str">
+        <f>VLOOKUP(C34,awakenskill!$A:$B,2,FALSE)</f>
+        <v>光コンボ強化＋</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+      <c r="F34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>76,124,2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <f>VLOOKUP(A35,awakenskill!$A:$B,2,FALSE)</f>
+        <v>闇コンボ強化</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f>VLOOKUP(C35,awakenskill!$A:$B,2,FALSE)</f>
+        <v>闇コンボ強化＋</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5" t="str">
+        <f>T(A35)&amp;","&amp;T(C35)&amp;","&amp;E35</f>
+        <v>77,125,2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/json/custom/awakenskill.xlsx
+++ b/json/custom/awakenskill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_github_padmst\010_PadMstData\json\custom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54233CF8-C3B9-4B99-9A3A-B96AE156A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A06699-0E7B-44E2-99B3-984289537BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{246170B1-CE7C-49E4-BF23-1E8572D70011}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{246170B1-CE7C-49E4-BF23-1E8572D70011}"/>
   </bookViews>
   <sheets>
     <sheet name="awakenskill" sheetId="1" r:id="rId1"/>
@@ -1744,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347B9835-9FF8-4991-A3E4-8944D05451B4}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -6118,9 +6118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB8BA99-429F-4320-9276-A53839062A3A}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
